--- a/template/outils.xlsx
+++ b/template/outils.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/etiennerivard/projets/techinfo/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7E2568-98DF-F745-9B8F-5F90ED29A424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA375B5C-90E1-B640-BAF4-19C1F8E38330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17420" activeTab="1" xr2:uid="{910BCC53-47D1-C541-8CB7-944735F661C4}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="172">
   <si>
     <t>Nom de l'outil</t>
   </si>
@@ -540,6 +540,24 @@
   </si>
   <si>
     <t>Plein d'outils utiles comme résumer une page Web, prendre une impression d'écran d'une page au complet, etc.</t>
+  </si>
+  <si>
+    <t>Component Gallery</t>
+  </si>
+  <si>
+    <t>Liste des différents composants possibles dans une page Web.</t>
+  </si>
+  <si>
+    <t>[Component Gallery](https://component.gallery/components/)</t>
+  </si>
+  <si>
+    <t>Open Art</t>
+  </si>
+  <si>
+    <t>Plusieurs modèles de génération d'images et de vidéos</t>
+  </si>
+  <si>
+    <t>[Open Art](https://openart.ai/home)</t>
   </si>
 </sst>
 </file>
@@ -898,10 +916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCCF222-BF62-EA45-8DBC-144785259CD6}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1080,6 +1098,20 @@
         <v>146</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>168</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1087,10 +1119,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B2930A-00E2-CC4D-B4BC-2EB16E827D3A}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1177,6 +1209,20 @@
       </c>
       <c r="D6" t="s">
         <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
